--- a/data/outputs/management_altmetric/62.xlsx
+++ b/data/outputs/management_altmetric/62.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE29"/>
+  <dimension ref="A1:CF29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1019,6 +1024,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1258,6 +1266,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1493,6 +1504,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1738,6 +1752,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1975,6 +1992,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2220,6 +2240,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2465,6 +2488,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2714,6 +2740,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2963,6 +2992,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3200,6 +3232,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3445,6 +3480,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3686,6 +3724,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3929,6 +3970,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4168,6 +4212,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4407,6 +4454,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,6 +4696,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4891,6 +4944,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5140,6 +5196,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5393,6 +5452,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5632,6 +5694,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5879,6 +5944,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6110,6 +6178,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6359,6 +6430,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6612,6 +6686,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6857,6 +6934,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7110,6 +7190,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7351,6 +7434,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7592,6 +7678,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
